--- a/image/medicationrequest.xlsx
+++ b/image/medicationrequest.xlsx
@@ -1530,46 +1530,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="58.328125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="59.15234375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="114.71875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="115.09375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="155.9453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="70.62109375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="57.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="156.88671875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="70.61328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="58.46484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="131.0546875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="125.81640625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/medicationrequest.xlsx
+++ b/image/medicationrequest.xlsx
@@ -446,7 +446,7 @@
     <t>MedicationRequest.intent</t>
   </si>
   <si>
-    <t>proposal | plan | order | original-order | instance-order | option</t>
+    <t>proposal | plan | order | original-order | reflex-order | filler-order | instance-order | option</t>
   </si>
   <si>
     <t>Whether the request is a proposal, plan, or an original order.</t>
@@ -477,10 +477,10 @@
     <t>MedicationRequest.category</t>
   </si>
   <si>
-    <t>Type of medication usage</t>
-  </si>
-  <si>
-    <t>Indicates the type of medication request (for example, where the medication is expected to be consumed or administered (i.e. inpatient or outpatient)).</t>
+    <t>Grouping or category of medication request</t>
+  </si>
+  <si>
+    <t>Indicates the grouping or category of medication request (for example, where the medication is expected to be consumed or administered (i.e. inpatient or outpatient)).</t>
   </si>
   <si>
     <t>The category can be used to include where the medication is expected to be consumed or other types of requests.</t>

--- a/image/medicationrequest.xlsx
+++ b/image/medicationrequest.xlsx
@@ -446,7 +446,7 @@
     <t>MedicationRequest.intent</t>
   </si>
   <si>
-    <t>proposal | plan | order | original-order | instance-order | option</t>
+    <t>proposal | plan | order | original-order | reflex-order | filler-order | instance-order | option</t>
   </si>
   <si>
     <t>Whether the request is a proposal, plan, or an original order.</t>
@@ -477,10 +477,10 @@
     <t>MedicationRequest.category</t>
   </si>
   <si>
-    <t>Type of medication usage</t>
-  </si>
-  <si>
-    <t>Indicates the type of medication request (for example, where the medication is expected to be consumed or administered (i.e. inpatient or outpatient)).</t>
+    <t>Grouping or category of medication request</t>
+  </si>
+  <si>
+    <t>Indicates the grouping or category of medication request (for example, where the medication is expected to be consumed or administered (i.e. inpatient or outpatient)).</t>
   </si>
   <si>
     <t>The category can be used to include where the medication is expected to be consumed or other types of requests.</t>
@@ -1530,46 +1530,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="58.328125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="59.15234375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="114.71875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="115.09375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="155.9453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="70.62109375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="57.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="156.88671875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="70.61328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="58.46484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="131.0546875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="125.81640625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/medicationrequest.xlsx
+++ b/image/medicationrequest.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2251" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2251" uniqueCount="437">
   <si>
     <t>Path</t>
   </si>
@@ -178,7 +178,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -749,7 +749,7 @@
     <t>MedicationRequest.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Patient|Device|RelatedPerson|CareTeam)
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Patient|Device|RelatedPerson|CareTeam|HealthcareService)
 </t>
   </si>
   <si>
@@ -1039,10 +1039,6 @@
   </si>
   <si>
     <t>MedicationRequest.dispenseRequest.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -1530,46 +1526,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="59.15234375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="58.328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="115.09375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="114.71875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="156.88671875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="70.61328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="58.46484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="155.9453125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="70.62109375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="57.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="125.81640625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="131.0546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6023,13 +6019,13 @@
         <v>44</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6080,7 +6076,7 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -6101,7 +6097,7 @@
         <v>44</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>44</v>
@@ -6112,7 +6108,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6141,7 +6137,7 @@
         <v>98</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>100</v>
@@ -6194,7 +6190,7 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6215,7 +6211,7 @@
         <v>44</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>44</v>
@@ -6226,11 +6222,11 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6252,10 +6248,10 @@
         <v>97</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>100</v>
@@ -6310,7 +6306,7 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6342,7 +6338,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6368,13 +6364,13 @@
         <v>319</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6424,7 +6420,7 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6445,7 +6441,7 @@
         <v>44</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>44</v>
@@ -6456,7 +6452,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6479,13 +6475,13 @@
         <v>44</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6536,7 +6532,7 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6557,7 +6553,7 @@
         <v>44</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>44</v>
@@ -6568,7 +6564,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6597,7 +6593,7 @@
         <v>98</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>100</v>
@@ -6650,7 +6646,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6671,7 +6667,7 @@
         <v>44</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>44</v>
@@ -6682,11 +6678,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6708,10 +6704,10 @@
         <v>97</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>100</v>
@@ -6766,7 +6762,7 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -6798,7 +6794,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6821,13 +6817,13 @@
         <v>44</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6878,7 +6874,7 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -6899,7 +6895,7 @@
         <v>44</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>44</v>
@@ -6910,7 +6906,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6933,13 +6929,13 @@
         <v>44</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6990,7 +6986,7 @@
         <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -7011,7 +7007,7 @@
         <v>44</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>44</v>
@@ -7022,7 +7018,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7045,13 +7041,13 @@
         <v>44</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7102,7 +7098,7 @@
         <v>44</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -7123,7 +7119,7 @@
         <v>44</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>44</v>
@@ -7134,7 +7130,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7157,19 +7153,19 @@
         <v>44</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>44</v>
@@ -7218,7 +7214,7 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7236,10 +7232,10 @@
         <v>44</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>44</v>
@@ -7250,7 +7246,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7273,16 +7269,16 @@
         <v>44</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7332,7 +7328,7 @@
         <v>44</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
@@ -7350,21 +7346,21 @@
         <v>44</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="AL51" t="s" s="2">
+      <c r="AM51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN51" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>375</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7387,13 +7383,13 @@
         <v>44</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7444,7 +7440,7 @@
         <v>44</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7462,21 +7458,21 @@
         <v>44</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AM52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN52" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>381</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7499,16 +7495,16 @@
         <v>44</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7558,7 +7554,7 @@
         <v>44</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
@@ -7576,10 +7572,10 @@
         <v>44</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>44</v>
@@ -7590,7 +7586,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7613,13 +7609,13 @@
         <v>44</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7670,7 +7666,7 @@
         <v>44</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
@@ -7691,7 +7687,7 @@
         <v>44</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>251</v>
@@ -7702,7 +7698,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7728,10 +7724,10 @@
         <v>319</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7782,7 +7778,7 @@
         <v>44</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
@@ -7800,10 +7796,10 @@
         <v>44</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>44</v>
@@ -7814,7 +7810,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7837,13 +7833,13 @@
         <v>44</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7894,7 +7890,7 @@
         <v>44</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
@@ -7915,7 +7911,7 @@
         <v>44</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>44</v>
@@ -7926,7 +7922,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7955,7 +7951,7 @@
         <v>98</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>100</v>
@@ -8008,7 +8004,7 @@
         <v>44</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -8029,7 +8025,7 @@
         <v>44</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>44</v>
@@ -8040,11 +8036,11 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8066,10 +8062,10 @@
         <v>97</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>100</v>
@@ -8124,7 +8120,7 @@
         <v>44</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
@@ -8156,7 +8152,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8179,16 +8175,16 @@
         <v>44</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="K59" t="s" s="2">
+      <c r="L59" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8217,11 +8213,11 @@
         <v>133</v>
       </c>
       <c r="X59" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="Y59" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="Y59" t="s" s="2">
-        <v>407</v>
-      </c>
       <c r="Z59" t="s" s="2">
         <v>44</v>
       </c>
@@ -8238,7 +8234,7 @@
         <v>44</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>52</v>
@@ -8256,21 +8252,21 @@
         <v>44</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AL59" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>409</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8296,10 +8292,10 @@
         <v>129</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8329,11 +8325,11 @@
         <v>133</v>
       </c>
       <c r="X60" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="Y60" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="Y60" t="s" s="2">
-        <v>414</v>
-      </c>
       <c r="Z60" t="s" s="2">
         <v>44</v>
       </c>
@@ -8350,7 +8346,7 @@
         <v>44</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
@@ -8368,21 +8364,21 @@
         <v>44</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="AL60" t="s" s="2">
+      <c r="AM60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>417</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8405,13 +8401,13 @@
         <v>44</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8462,7 +8458,7 @@
         <v>44</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
@@ -8477,13 +8473,13 @@
         <v>44</v>
       </c>
       <c r="AJ61" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AL61" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>44</v>
@@ -8494,11 +8490,11 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8517,16 +8513,16 @@
         <v>44</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8576,7 +8572,7 @@
         <v>44</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
@@ -8597,7 +8593,7 @@
         <v>44</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>44</v>
@@ -8608,7 +8604,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8631,16 +8627,16 @@
         <v>44</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8690,7 +8686,7 @@
         <v>44</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
@@ -8705,13 +8701,13 @@
         <v>44</v>
       </c>
       <c r="AJ63" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL63" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>44</v>
